--- a/BangKeHoach-DoAnCuoiKyCTDL.xlsx
+++ b/BangKeHoach-DoAnCuoiKyCTDL.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t xml:space="preserve">KẾ HOẠCH THỰC HIỆN ĐỒ ÁN CUỐI KỲ MÔN CẤU TRÚC DỮ LIỆU &amp; GIẢI THUẬT - 2019</t>
   </si>
@@ -73,7 +73,13 @@
     <t xml:space="preserve">Lập mô hình, thiết kê giao diện</t>
   </si>
   <si>
-    <t xml:space="preserve">Viết code</t>
+    <t xml:space="preserve">Chưa Hoàn Thành</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoàn thành code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/10/2019</t>
   </si>
 </sst>
 </file>
@@ -252,8 +258,8 @@
   </sheetPr>
   <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -261,7 +267,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="25.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="2" width="14.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="14.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="12.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="19.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="9" style="1" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="24" style="1" width="14.5"/>
   </cols>
@@ -375,8 +383,12 @@
       <c r="F4" s="10" t="n">
         <v>43718</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="G4" s="10" t="n">
+        <v>43715</v>
+      </c>
+      <c r="H4" s="10" t="n">
+        <v>43726</v>
+      </c>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -407,8 +419,12 @@
       <c r="F5" s="10" t="n">
         <v>43721</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="G5" s="10" t="n">
+        <v>43722</v>
+      </c>
+      <c r="H5" s="10" t="n">
+        <v>43737</v>
+      </c>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
@@ -439,8 +455,12 @@
       <c r="F6" s="10" t="n">
         <v>43718</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="G6" s="10" t="n">
+        <v>43715</v>
+      </c>
+      <c r="H6" s="10" t="n">
+        <v>43726</v>
+      </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
@@ -471,8 +491,12 @@
       <c r="F7" s="10" t="n">
         <v>43721</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="G7" s="10" t="n">
+        <v>43722</v>
+      </c>
+      <c r="H7" s="10" t="n">
+        <v>43737</v>
+      </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
@@ -529,9 +553,15 @@
       <c r="E9" s="10" t="n">
         <v>43723</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="F9" s="10" t="n">
+        <v>43739</v>
+      </c>
+      <c r="G9" s="10" t="n">
+        <v>43740</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
@@ -550,7 +580,7 @@
     </row>
     <row r="10" s="7" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>11</v>
@@ -561,9 +591,15 @@
       <c r="E10" s="10" t="n">
         <v>43732</v>
       </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="F10" s="10" t="n">
+        <v>43769</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>17</v>
+      </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>

--- a/BangKeHoach-DoAnCuoiKyCTDL.xlsx
+++ b/BangKeHoach-DoAnCuoiKyCTDL.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
   <si>
     <t xml:space="preserve">KẾ HOẠCH THỰC HIỆN ĐỒ ÁN CUỐI KỲ MÔN CẤU TRÚC DỮ LIỆU &amp; GIẢI THUẬT - 2019</t>
   </si>
@@ -49,7 +49,7 @@
     <t xml:space="preserve">Ngày kết thúc (thực tế)</t>
   </si>
   <si>
-    <t xml:space="preserve">Khảo sát mô hình calculator</t>
+    <t xml:space="preserve">Khảo sát mô hình</t>
   </si>
   <si>
     <t xml:space="preserve">Tìm hiểu giá trị biểu thức hậu tố</t>
@@ -58,28 +58,80 @@
     <t xml:space="preserve">X</t>
   </si>
   <si>
-    <t xml:space="preserve">Code thử gtbt hậu tố</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tìm hiểu giá trị biểu thức nguyên tố</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code thử gtbt nguyên tố</t>
+    <t xml:space="preserve">Code thử giá trị biểu thức hậu tố</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tìm hiểu cấu trúc code Window Form C#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chạy thử code mẫu Calculator</t>
   </si>
   <si>
     <t xml:space="preserve">Triển khai xây dựng</t>
   </si>
   <si>
-    <t xml:space="preserve">Lập mô hình, thiết kê giao diện</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chưa Hoàn Thành</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoàn thành code</t>
+    <t xml:space="preserve">Lên ý tưởng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lập mô hình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiết kê giao diện</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoàn thành các nút bấm trên giao diện</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoàn thành code của các nút </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Áp dụng tính giá trị hậu tố vào máy tính</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/9/2019</t>
   </si>
   <si>
     <t xml:space="preserve">15/10/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đang hoàn thiện</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sửa chữa phần code còn sai (Đối với các code lỗi
+Trong với một số trường hợp đặc biệt)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/10/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/10/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chưa bắt đầu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chưa kết thúc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tối ưu hóa chương trình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20/10/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/10/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoàn thành viết báo cáo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26/10/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoàn thành PowerPoint và nội dung thuyết trình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27/10/2019</t>
   </si>
 </sst>
 </file>
@@ -256,20 +308,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W26"/>
+  <dimension ref="A1:W28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="25.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="14.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="12.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="19.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="2" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="17.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="9" style="1" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="24" style="1" width="14.5"/>
   </cols>
@@ -301,7 +353,7 @@
       <c r="V1" s="4"/>
       <c r="W1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="42.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="46.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -343,9 +395,6 @@
       <c r="W2" s="4"/>
     </row>
     <row r="3" s="7" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -370,6 +419,9 @@
       <c r="W3" s="11"/>
     </row>
     <row r="4" s="7" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="B4" s="8" t="s">
         <v>10</v>
       </c>
@@ -517,13 +569,27 @@
       <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="B8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="10" t="n">
+        <v>43743</v>
+      </c>
+      <c r="F8" s="10" t="n">
+        <v>43743</v>
+      </c>
+      <c r="G8" s="10" t="n">
+        <v>43743</v>
+      </c>
+      <c r="H8" s="10" t="n">
+        <v>43743</v>
+      </c>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
@@ -542,7 +608,7 @@
     </row>
     <row r="9" s="7" customFormat="true" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>11</v>
@@ -557,10 +623,10 @@
         <v>43739</v>
       </c>
       <c r="G9" s="10" t="n">
-        <v>43740</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>17</v>
+        <v>43750</v>
+      </c>
+      <c r="H9" s="10" t="n">
+        <v>43750</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
@@ -589,16 +655,16 @@
         <v>11</v>
       </c>
       <c r="E10" s="10" t="n">
-        <v>43732</v>
+        <v>43723</v>
       </c>
       <c r="F10" s="10" t="n">
-        <v>43769</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>17</v>
+        <v>43739</v>
+      </c>
+      <c r="G10" s="10" t="n">
+        <v>43750</v>
+      </c>
+      <c r="H10" s="10" t="n">
+        <v>43750</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
@@ -616,13 +682,167 @@
       <c r="V10" s="11"/>
       <c r="W10" s="11"/>
     </row>
-    <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="10" t="n">
+        <v>43723</v>
+      </c>
+      <c r="F11" s="10" t="n">
+        <v>43739</v>
+      </c>
+      <c r="G11" s="10" t="n">
+        <v>43750</v>
+      </c>
+      <c r="H11" s="10" t="n">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="10" t="n">
+        <v>43723</v>
+      </c>
+      <c r="F12" s="10" t="n">
+        <v>43739</v>
+      </c>
+      <c r="G12" s="10" t="n">
+        <v>43750</v>
+      </c>
+      <c r="H12" s="10" t="n">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="10" t="n">
+        <v>43750</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="31.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
     <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -631,8 +851,8 @@
     <row r="23" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="25" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1606,6 +1826,8 @@
     <row r="998" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="999" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1001" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1002" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
